--- a/record/Six.xlsx
+++ b/record/Six.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -52,14 +52,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,31 +73,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C62"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.41176470588235325</v>
+        <v>0.23981900452488691</v>
       </c>
       <c r="B2">
-        <v>1.5014662756598245</v>
+        <v>1.2082111436950154</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -101,255 +105,255 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.33031674208144857</v>
+        <v>0.095022624434389691</v>
       </c>
       <c r="B3">
-        <v>1.5014662756598245</v>
+        <v>1.0557184750733146</v>
       </c>
       <c r="C3">
-        <v>0.012472271919250488</v>
+        <v>0.033232569694519043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.22171945701357476</v>
+        <v>-0.11312217194570118</v>
       </c>
       <c r="B4">
-        <v>1.4193548387096779</v>
+        <v>0.72727272727272751</v>
       </c>
       <c r="C4">
-        <v>0.034318864345550537</v>
+        <v>0.090655311942100525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.15837104072398223</v>
+        <v>-0.31221719457013575</v>
       </c>
       <c r="B5">
-        <v>1.3607038123167161</v>
+        <v>0.31671554252199474</v>
       </c>
       <c r="C5">
-        <v>0.050744041800498962</v>
+        <v>0.1196734607219696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.013574660633484115</v>
+        <v>-0.41176470588235259</v>
       </c>
       <c r="B6">
-        <v>1.1847507331378306</v>
+        <v>0.070381231671554634</v>
       </c>
       <c r="C6">
-        <v>0.074612349271774292</v>
+        <v>0.14917440712451935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.14932126696832548</v>
+        <v>-0.48416289592760164</v>
       </c>
       <c r="B7">
-        <v>0.9149560117302058</v>
+        <v>-0.14076246334310794</v>
       </c>
       <c r="C7">
-        <v>0.084318593144416809</v>
+        <v>0.18563568592071533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.22171945701357454</v>
+        <v>-0.5022624434389138</v>
       </c>
       <c r="B8">
-        <v>0.77419354838709742</v>
+        <v>-0.29325513196480868</v>
       </c>
       <c r="C8">
-        <v>0.099637359380722046</v>
+        <v>0.22147335112094879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.29411764705882359</v>
+        <v>-0.56561085972850678</v>
       </c>
       <c r="B9">
-        <v>0.62170087976539623</v>
+        <v>-0.53958944281524879</v>
       </c>
       <c r="C9">
-        <v>0.11200904846191406</v>
+        <v>0.25344863533973694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.40271493212669651</v>
+        <v>-0.58371040723981893</v>
       </c>
       <c r="B10">
-        <v>0.31671554252199474</v>
+        <v>-0.85630498533724264</v>
       </c>
       <c r="C10">
-        <v>0.12493394315242767</v>
+        <v>0.28383471071720123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.43891402714932126</v>
+        <v>-0.56561085972850678</v>
       </c>
       <c r="B11">
-        <v>0.21114369501466346</v>
+        <v>-1.0087976539589438</v>
       </c>
       <c r="C11">
-        <v>0.13627968728542328</v>
+        <v>0.3271155059337616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.46606334841628949</v>
+        <v>-0.56561085972850678</v>
       </c>
       <c r="B12">
-        <v>0.093841642228739364</v>
+        <v>-1.079178885630498</v>
       </c>
       <c r="C12">
-        <v>0.15158839523792267</v>
+        <v>0.34886151552200317</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.48416289592760164</v>
+        <v>-0.54751131221719462</v>
       </c>
       <c r="B13">
-        <v>-0.17595307917888503</v>
+        <v>-1.1612903225806446</v>
       </c>
       <c r="C13">
-        <v>0.16309507191181183</v>
+        <v>0.37393681704998016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.47511312217194557</v>
+        <v>-0.49321266968325772</v>
       </c>
       <c r="B14">
-        <v>-0.45747800586510223</v>
+        <v>-1.2551319648093835</v>
       </c>
       <c r="C14">
-        <v>0.19379295408725739</v>
+        <v>0.39731226861476898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.46606334841628949</v>
+        <v>-0.42081447963800911</v>
       </c>
       <c r="B15">
-        <v>-0.55131964809384115</v>
+        <v>-1.33724340175953</v>
       </c>
       <c r="C15">
-        <v>0.20340867340564728</v>
+        <v>0.41376762092113495</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.42986425339366519</v>
+        <v>-0.40271493212669651</v>
       </c>
       <c r="B16">
-        <v>-0.77419354838709609</v>
+        <v>-1.3489736070381224</v>
       </c>
       <c r="C16">
-        <v>0.21921023726463318</v>
+        <v>0.43618753552436829</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.38461538461538436</v>
+        <v>-0.276018099547511</v>
       </c>
       <c r="B17">
-        <v>-0.86803519061583501</v>
+        <v>-1.3841642228738995</v>
       </c>
       <c r="C17">
-        <v>0.23455917835235596</v>
+        <v>0.45155659317970276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.31221719457013575</v>
+        <v>-0.20361990950226239</v>
       </c>
       <c r="B18">
-        <v>-1.0322580645161286</v>
+        <v>-1.4076246334310847</v>
       </c>
       <c r="C18">
-        <v>0.24880170822143555</v>
+        <v>0.47697387635707855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.24886877828054277</v>
+        <v>-0.15837104072398156</v>
       </c>
       <c r="B19">
-        <v>-1.0557184750733133</v>
+        <v>-1.4076246334310847</v>
       </c>
       <c r="C19">
-        <v>0.26161596179008484</v>
+        <v>0.49192048609256744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.19457013574660631</v>
+        <v>-0.022624434389139969</v>
       </c>
       <c r="B20">
-        <v>-1.1026392961876827</v>
+        <v>-1.3958944281524923</v>
       </c>
       <c r="C20">
-        <v>0.27454085648059845</v>
+        <v>0.51549710333347321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.031674208144796046</v>
+        <v>0.10407239819004577</v>
       </c>
       <c r="B21">
-        <v>-1.1143695014662751</v>
+        <v>-1.3607038123167148</v>
       </c>
       <c r="C21">
-        <v>0.28599724173545837</v>
+        <v>0.5460742861032486</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.031674208144796268</v>
+        <v>0.14932126696832615</v>
       </c>
       <c r="B22">
-        <v>-1.1143695014662751</v>
+        <v>-1.33724340175953</v>
       </c>
       <c r="C22">
-        <v>0.2985198050737381</v>
+        <v>0.57312101125717163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.14027149321267007</v>
+        <v>0.26696832579185514</v>
       </c>
       <c r="B23">
-        <v>-1.079178885630498</v>
+        <v>-1.302052785923753</v>
       </c>
       <c r="C23">
-        <v>0.3093324601650238</v>
+        <v>0.58906339108943939</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.21266968325791868</v>
+        <v>0.36651583710407287</v>
       </c>
       <c r="B24">
-        <v>-1.0439882697947209</v>
+        <v>-1.2551319648093835</v>
       </c>
       <c r="C24">
-        <v>0.32316260039806366</v>
+        <v>0.61536580324172974</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.2850678733031673</v>
+        <v>0.42081447963800933</v>
       </c>
       <c r="B25">
-        <v>-0.9853372434017591</v>
+        <v>-1.1964809384164217</v>
       </c>
       <c r="C25">
-        <v>0.3354337066411972</v>
+        <v>0.63754431903362274</v>
       </c>
     </row>
     <row r="26">
@@ -357,351 +361,406 @@
         <v>0.47511312217194579</v>
       </c>
       <c r="B26">
-        <v>-0.80938416422287318</v>
+        <v>-1.1495601173020522</v>
       </c>
       <c r="C26">
-        <v>0.34855976700782776</v>
+        <v>0.6518874317407608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.5475113122171944</v>
+        <v>0.48416289592760187</v>
       </c>
       <c r="B27">
-        <v>-0.76246334310850372</v>
+        <v>-1.1378299120234598</v>
       </c>
       <c r="C27">
-        <v>0.36003626883029938</v>
+        <v>0.67395530641078949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.57466063348416352</v>
+        <v>0.49321266968325794</v>
       </c>
       <c r="B28">
-        <v>-0.71554252199413426</v>
+        <v>-1.0909090909090904</v>
       </c>
       <c r="C28">
-        <v>0.3736250102519989</v>
+        <v>0.69850757718086243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.6199095022624439</v>
+        <v>0.50226244343891402</v>
       </c>
       <c r="B29">
-        <v>-0.64516129032258007</v>
+        <v>-1.0322580645161286</v>
       </c>
       <c r="C29">
-        <v>0.3988310694694519</v>
+        <v>0.73020122945308685</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.62895927601809998</v>
+        <v>0.47511312217194579</v>
       </c>
       <c r="B30">
-        <v>-0.50439882697947169</v>
+        <v>-0.93841642228738964</v>
       </c>
       <c r="C30">
-        <v>0.41413977742195129</v>
+        <v>0.75625218451023102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.6199095022624439</v>
+        <v>0.43891402714932148</v>
       </c>
       <c r="B31">
-        <v>-0.48093841642228696</v>
+        <v>-0.89149560117302018</v>
       </c>
       <c r="C31">
-        <v>0.42697414755821228</v>
+        <v>0.77918507158756256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.59276018099547567</v>
+        <v>0.3574660633484168</v>
       </c>
       <c r="B32">
-        <v>-0.34017595307917814</v>
+        <v>-0.82111436950146555</v>
       </c>
       <c r="C32">
-        <v>0.43899379670619965</v>
+        <v>0.80398879945278168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.55656108597285048</v>
+        <v>0.32126696832579249</v>
       </c>
       <c r="B33">
-        <v>-0.26979472140762395</v>
+        <v>-0.78592375366568845</v>
       </c>
       <c r="C33">
-        <v>0.452461838722229</v>
+        <v>0.82812868058681488</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.5113122171945701</v>
+        <v>0.20361990950226261</v>
       </c>
       <c r="B34">
-        <v>-0.1876832844574774</v>
+        <v>-0.69208211143694953</v>
       </c>
       <c r="C34">
-        <v>0.46454183757305145</v>
+        <v>0.85748881101608276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.42081447963800933</v>
+        <v>0.15837104072398223</v>
       </c>
       <c r="B35">
-        <v>-0.082111436950146111</v>
+        <v>-0.64516129032258007</v>
       </c>
       <c r="C35">
-        <v>0.47710463404655457</v>
+        <v>0.87988860905170441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.3574660633484168</v>
+        <v>0.14027149321267007</v>
       </c>
       <c r="B36">
-        <v>-0.035190615835776651</v>
+        <v>-0.63343108504398771</v>
       </c>
       <c r="C36">
-        <v>0.48772618174552917</v>
+        <v>0.89551918208599091</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.27601809954751122</v>
+        <v>0.067873303167420573</v>
       </c>
       <c r="B37">
-        <v>-0.011730205278591921</v>
+        <v>-0.57478005865102588</v>
       </c>
       <c r="C37">
-        <v>0.49895122647285461</v>
+        <v>0.91486126184463501</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.21266968325791868</v>
+        <v>0.040723981900452344</v>
       </c>
       <c r="B38">
-        <v>0.023460410557185174</v>
+        <v>-0.55131964809384115</v>
       </c>
       <c r="C38">
-        <v>0.51397830247879028</v>
+        <v>0.9388703852891922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.14932126696832615</v>
+        <v>0.0045248868778280382</v>
       </c>
       <c r="B39">
-        <v>0.058651026392962269</v>
+        <v>-0.50439882697947169</v>
       </c>
       <c r="C39">
-        <v>0.52728541195392609</v>
+        <v>0.95478259027004242</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.04977375565610842</v>
+        <v>-0.031674208144796046</v>
       </c>
       <c r="B40">
-        <v>0.035190615835777539</v>
+        <v>-0.49266862170087933</v>
       </c>
       <c r="C40">
-        <v>0.54042153060436249</v>
+        <v>0.98310671746730804</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.0045248868778278162</v>
+        <v>-0.085972850678732948</v>
       </c>
       <c r="B41">
-        <v>0.035190615835777539</v>
+        <v>-0.44574780058650987</v>
       </c>
       <c r="C41">
-        <v>0.55325590074062347</v>
+        <v>1.0104149580001831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.13122171945701333</v>
+        <v>-0.11312217194570118</v>
       </c>
       <c r="B42">
-        <v>-0.011730205278591921</v>
+        <v>-0.42228739002932514</v>
       </c>
       <c r="C42">
-        <v>0.56727714836597443</v>
+        <v>1.0335389524698257</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.18552036199095023</v>
+        <v>-0.14932126696832548</v>
       </c>
       <c r="B43">
-        <v>-0.023460410557184286</v>
+        <v>-0.42228739002932514</v>
       </c>
       <c r="C43">
-        <v>0.58905333280563354</v>
+        <v>1.0542288422584534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.25791855203619884</v>
+        <v>-0.19457013574660631</v>
       </c>
       <c r="B44">
-        <v>-0.035190615835776651</v>
+        <v>-0.39882697947214041</v>
       </c>
       <c r="C44">
-        <v>0.60799308121204376</v>
+        <v>1.0802596807479858</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.31221719457013575</v>
+        <v>-0.21266968325791846</v>
       </c>
       <c r="B45">
-        <v>-0.058651026392961381</v>
+        <v>-0.39882697947214041</v>
       </c>
       <c r="C45">
-        <v>0.62220543622970581</v>
+        <v>1.1093080043792725</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.33936651583710398</v>
+        <v>-0.23981900452488669</v>
       </c>
       <c r="B46">
-        <v>-0.070381231671553746</v>
+        <v>-0.3870967741935476</v>
       </c>
       <c r="C46">
-        <v>0.63516050577163696</v>
+        <v>1.1316776275634766</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.36651583710407221</v>
+        <v>-0.29411764705882359</v>
       </c>
       <c r="B47">
-        <v>-0.093841642228738475</v>
+        <v>-0.37536656891495523</v>
       </c>
       <c r="C47">
-        <v>0.651545450091362</v>
+        <v>1.1490985751152039</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.37556561085972828</v>
+        <v>-0.30316742081447967</v>
       </c>
       <c r="B48">
-        <v>-0.093841642228738475</v>
+        <v>-0.36363636363636287</v>
       </c>
       <c r="C48">
-        <v>0.66464133560657501</v>
+        <v>1.1782977730035782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.42081447963800911</v>
+        <v>-0.32126696832579182</v>
       </c>
       <c r="B49">
-        <v>-0.10557184750733084</v>
+        <v>-0.36363636363636287</v>
       </c>
       <c r="C49">
-        <v>0.679054856300354</v>
+        <v>1.2113794684410095</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.43891402714932126</v>
+        <v>-0.37556561085972828</v>
       </c>
       <c r="B50">
-        <v>-0.11730205278592321</v>
+        <v>-0.34017595307917814</v>
       </c>
       <c r="C50">
-        <v>0.69352872669696808</v>
+        <v>1.2442097067832947</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.43891402714932126</v>
+        <v>-0.39366515837104044</v>
       </c>
       <c r="B51">
-        <v>-0.11730205278592321</v>
+        <v>-0.34017595307917814</v>
       </c>
       <c r="C51">
-        <v>0.70618204772472382</v>
+        <v>1.2774623930454254</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.44796380090497734</v>
+        <v>-0.40271493212669651</v>
       </c>
       <c r="B52">
-        <v>-0.12903225806451557</v>
+        <v>-0.32844574780058577</v>
       </c>
       <c r="C52">
-        <v>0.74135586619377136</v>
+        <v>1.286635547876358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.45701357466063341</v>
+        <v>-0.42081447963800911</v>
       </c>
       <c r="B53">
-        <v>-0.12903225806451557</v>
+        <v>-0.32844574780058577</v>
       </c>
       <c r="C53">
-        <v>0.7520679384469986</v>
+        <v>1.3138733804225922</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.47511312217194557</v>
+        <v>-0.44796380090497734</v>
       </c>
       <c r="B54">
-        <v>-0.1524926686217003</v>
+        <v>-0.32844574780058577</v>
       </c>
       <c r="C54">
-        <v>0.76674297451972961</v>
+        <v>1.3377618044614792</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.51131221719456987</v>
+        <v>-0.45701357466063341</v>
       </c>
       <c r="B55">
-        <v>-0.1524926686217003</v>
+        <v>-0.31671554252199341</v>
       </c>
       <c r="C55">
-        <v>0.7852502167224884</v>
+        <v>1.3540562242269516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.52941176470588203</v>
+        <v>-0.45701357466063341</v>
       </c>
       <c r="B56">
-        <v>-0.16422287390029267</v>
+        <v>-0.31671554252199341</v>
       </c>
       <c r="C56">
-        <v>0.80528631806373596</v>
+        <v>1.3889182358980179</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.53846153846153855</v>
+        <v>-0.47511312217194557</v>
       </c>
       <c r="B57">
-        <v>-0.17595307917888503</v>
+        <v>-0.31671554252199341</v>
       </c>
       <c r="C57">
-        <v>0.82057490944862366</v>
+        <v>1.4088939875364304</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>-0.48416289592760164</v>
+      </c>
+      <c r="B58">
+        <v>-0.31671554252199341</v>
+      </c>
+      <c r="C58">
+        <v>1.4202095568180084</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>-0.48416289592760164</v>
+      </c>
+      <c r="B59">
+        <v>-0.31671554252199341</v>
+      </c>
+      <c r="C59">
+        <v>1.4467634260654449</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>-0.48416289592760164</v>
+      </c>
+      <c r="B60">
+        <v>-0.31671554252199341</v>
+      </c>
+      <c r="C60">
+        <v>1.4721706509590149</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>-0.49321266968325772</v>
+      </c>
+      <c r="B61">
+        <v>-0.31671554252199341</v>
+      </c>
+      <c r="C61">
+        <v>1.5122730284929276</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>-0.49321266968325772</v>
+      </c>
+      <c r="B62">
+        <v>-0.32844574780058577</v>
+      </c>
+      <c r="C62">
+        <v>1.6746237874031067</v>
       </c>
     </row>
   </sheetData>
